--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pyton\ttk-app\app-tiktok\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2B0BF-6B27-4B8F-8DFA-7AAFAA9B60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Tema</t>
   </si>
@@ -23,6 +29,18 @@
   </si>
   <si>
     <t>Relevância</t>
+  </si>
+  <si>
+    <t>Roteiro</t>
+  </si>
+  <si>
+    <t>Video Pronto</t>
+  </si>
+  <si>
+    <t>Video Postado</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
   <si>
     <t>O Objeto Interestelar 3I/ATLAS</t>
@@ -52,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,19 +418,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,38 +445,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -1,96 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pyton\ttk-app\app-tiktok\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2B0BF-6B27-4B8F-8DFA-7AAFAA9B60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Tema</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Relevância</t>
-  </si>
-  <si>
-    <t>Roteiro</t>
-  </si>
-  <si>
-    <t>Video Pronto</t>
-  </si>
-  <si>
-    <t>Video Postado</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>O Objeto Interestelar 3I/ATLAS</t>
-  </si>
-  <si>
-    <t>O misterioso objeto 3I/ATLAS é o ponto central da maior parte do conteúdo, gerando intensas discussões sobre sua natureza – se é um cometa, um asteroide, um visitante de outra estrela ou até uma nave alienígena – e seu trajeto próximo ao Sol ou à Terra, com menções a datas específicas para revelações.</t>
-  </si>
-  <si>
-    <t>alta</t>
-  </si>
-  <si>
-    <t>Especulações sobre Vida Extraterrestre e Mistérios Cósmicos</t>
-  </si>
-  <si>
-    <t>Muitos posts exploram a possibilidade de vida alienígena e tecnologia extraterrestre em relação ao 3I/ATLAS, com termos como 'nave Alien', 'OVNIs' e 'tecnología alien'. Há um forte fascínio pelo desconhecido no espaço, misturando ciência com teorias da conspiração e humor.</t>
-  </si>
-  <si>
-    <t>Disseminação de Notícias e Desinformação em Plataformas Digitais</t>
-  </si>
-  <si>
-    <t>O texto, sendo uma compilação de posts populares de uma plataforma como o TikTok, ilustra como informações (algumas verificadas, outras especulativas ou humorísticas) sobre eventos cósmicos e terrestres se espalham rapidamente, gerando milhões de visualizações e borrando a linha entre 'realidade e ficção', refletindo o fenômeno da viralização digital.</t>
-  </si>
-  <si>
-    <t>média</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,22 +60,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,78 +422,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="50" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tema</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Relevância</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Roteiro</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Video Pronto</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Video Postado</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>O Objeto Interestelar 3I/ATLAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>O misterioso objeto 3I/ATLAS é o ponto central da maior parte do conteúdo, gerando intensas discussões sobre sua natureza – se é um cometa, um asteroide, um visitante de outra estrela ou até uma nave alienígena – e seu trajeto próximo ao Sol ou à Terra, com menções a datas específicas para revelações.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Roteiro TikTok: 3I/ATLAS – O Mistério Cósmico
+[Música de suspense crescente e vibrante, com uma batida forte e rápida de fundo]
+0-3 segundos: INTRODUÇÃO CHAMATIVA
+VISUAL: Começa com um close-up rápido e misterioso de um objeto cósmico brilhante se movendo no espaço, vindo do escuro. Flash de texto na tela: "O QUE É ISSO?" Corte rápido para uma simulação mais ampla de um objeto solitário no espaço, com um brilho incomum, simulando o 3I/ATLAS.
+VOZ: (Sussurro rápido e intenso, quase ofegante) "UM VISITANTE... DE OUTRA GALÁXIA?"
+TEXTO NA TELA: 👽 VISITA ALIENÍGENA? 🛸
+3-20 segundos: DESENVOLVIMENTO DO CONTEÚDO
+VISUAL: Sequência de cortes extremamente rápidos. Simulações do 3I/ATLAS se aproximando, gráficos simples e dinâmicos de trajetória espacial, cientistas em laboratório (imagens genéricas, rápidas), telescópios apontando para o céu.
+VOZ: (Tom animado, rápido e direto) "Você precisa conhecer o 3I/ATLAS! Esse objeto misterioso está deixando astrônomos de cabelo em pé no mundo todo!"
+TEXTO NA TELA: 🌌 O ENIGMA 3I/ATLAS!
+VOZ: "Não é um cometa comum, nem um asteroide qualquer. Ele veio de MUITO, MUITO LONGE! Tipo... de *fora* do nosso Sistema Solar! Isso mesmo, É INTERESTELAR!"
+TEXTO NA TELA: 🚀 ORIGEM INTERESTELAR!
+VISUAL: Ilustrações rápidas contrastando: um cometa tradicional (com cauda brilhante), um asteroide rochoso, e depois um objeto mais "limpo" ou com formato levemente incomum, com um brilho misterioso.
+VOZ: "A grande questão que todos se perguntam: é um cometa interestelar? Um asteroide super estranho? OU... *será que é algo mais*? Uma nave alienígena?"
+TEXTO NA TELA: COMETA? ASTEROIDE? 🛸 NAVE?
+VISUAL: Gráfico rápido e chamativo mostrando uma linha de trajetória passando *perto* do Sol e depois da órbita da Terra. Datas genéricas como "MÊS X" e "MÊS Y" piscam.
+VOZ: "Ele vai passar relativamente perto do Sol nos próximos meses, e teremos MAIS DADOS CRUCIAIS! Fique atento, as observações podem revelar tudo!"
+TEXTO NA TELA: 🔭 REVELAÇÕES A CAMINHO!
+20-30 segundos: CHAMADA PARA AÇÃO E CONCLUSÃO
+VISUAL: Imagem final do 3I/ATLAS flutuando no espaço profundo, com um grande ponto de interrogação cósmico piscando sobre ele. Música de suspense atinge o pico dramático e termina com um som de "ding" ou "whoosh" final e misterioso.
+VOZ: (Tom intrigante, mais lento e reflexivo) "E aí, qual sua teoria? Cometa exótico? Asteroide perdido? Ou estamos prestes a descobrir algo realmente extraordinário?"
+TEXTO NA TELA: 🤔 QUAL SUA TEORIA?
+VOZ: "Comenta AQUI embaixo o que você acha e me segue pra não perder NENHUMA atualização sobre o 3I/ATLAS! O universo... espera sua resposta!"
+TEXTO NA TELA: 👇 COMENTE! SIGA! 🔔
+[FADE OUT]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Especulações sobre Vida Extraterrestre e Mistérios Cósmicos</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Muitos posts exploram a possibilidade de vida alienígena e tecnologia extraterrestre em relação ao 3I/ATLAS, com termos como 'nave Alien', 'OVNIs' e 'tecnología alien'. Há um forte fascínio pelo desconhecido no espaço, misturando ciência com teorias da conspiração e humor.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Disseminação de Notícias e Desinformação em Plataformas Digitais</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>O texto, sendo uma compilação de posts populares de uma plataforma como o TikTok, ilustra como informações (algumas verificadas, outras especulativas ou humorísticas) sobre eventos cósmicos e terrestres se espalham rapidamente, gerando milhões de visualizações e borrando a linha entre 'realidade e ficção', refletindo o fenômeno da viralização digital.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>média</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -433,7 +433,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="50" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -526,9 +526,6 @@
 [FADE OUT]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -546,10 +543,26 @@
           <t>alta</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pouca gente sabe disso, mas o que a NASA encontrou em 2019 pode mudar tudo que sabemos sobre vida no universo.
+Naquele ano, enquanto o mundo seguia a vida normal, nossos telescópios capturaram algo que desafiava a própria ciência. Um objeto vindo de *fora* do nosso sistema solar. Seu nome? 3I/ATLAS.
+À primeira vista, parecia um cometa comum. Mas ele não se comportava como um. Sua trajetória era estranha, seu brilho, ainda mais. Parecia estar acelerando sem motivo aparente, como se algo o impulsionasse, fugindo das leis naturais que conhecemos. Ninguém entendeu o que estava acontecendo.
+E se ele não fosse um cometa? E se fosse, na verdade, tecnologia? O professor Avi Loeb, de Harvard, um dos maiores nomes da astrofísica, não hesitou. Para ele, todas as evidências apontavam para algo *artificial*. Uma sonda. Talvez, uma nave alienígena. Um OVNI interestelar, observando em silêncio.
+Imagine: uma civilização avançada que enviou um mensageiro para o nosso quintal cósmico, enquanto todos dormiam. O que eles queriam? De onde vinham? Será que estamos sozinhos no espaço, ou o universo está apenas esperando o momento certo para se revelar?
+Isso muda tudo, não é? Agora me diz: você acredita que o 3I/ATLAS era apenas um cometa? Ou algo muito maior?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,10 +580,26 @@
           <t>média</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Você sabia que em questão de minutos, uma história pode ir de um sussurro na internet para a manchete que milhões de pessoas acreditam ser real? Mesmo que não seja.
+Parecia apenas mais um vídeo aleatório. Alguém filmou luzes estranhas piscando no céu, numa madrugada silenciosa. As imagens eram granuladas, a dúvida era palpável. Mas em poucas horas, já era a "prova" de algo maior. Milhões de visualizações.
+E de repente, outro post. Áudios distorcidos de supostas mensagens vindas do espaço. Ou seriam alertas de algo em nosso próprio planeta? Ninguém sabia ao certo. As luzes e os sons se espalhavam. Todos, curiosos e apreensivos, compartilhavam.
+Em pouco tempo, o mesmo som aparecia em vídeos de outros continentes. Teorias se multiplicavam como rastilho de pólvora. Cometas perigosos, civilizações perdidas, desastres iminentes. A linha entre o fato e a fantasia se desfazia a cada repost, a cada novo comentário, a cada legenda dramática.
+Será que a gente ainda consegue distinguir o que é real do que é apenas... um viral bem feito? A cada segundo, um novo "fato" surge. Ganha vida própria. E milhões de visualizações. Não importa a fonte, importa a história que vende.
+É um jogo de bilhões de dados e cliques. A verdade pode ser a primeira vítima. Então, me diga: você está disposto a acreditar em tudo que viraliza? Ou vai questionar? Compartilhe essa reflexão, antes que a próxima "revelação" chegue na sua tela.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -427,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -499,31 +499,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Roteiro TikTok: 3I/ATLAS – O Mistério Cósmico
-[Música de suspense crescente e vibrante, com uma batida forte e rápida de fundo]
-0-3 segundos: INTRODUÇÃO CHAMATIVA
-VISUAL: Começa com um close-up rápido e misterioso de um objeto cósmico brilhante se movendo no espaço, vindo do escuro. Flash de texto na tela: "O QUE É ISSO?" Corte rápido para uma simulação mais ampla de um objeto solitário no espaço, com um brilho incomum, simulando o 3I/ATLAS.
-VOZ: (Sussurro rápido e intenso, quase ofegante) "UM VISITANTE... DE OUTRA GALÁXIA?"
-TEXTO NA TELA: 👽 VISITA ALIENÍGENA? 🛸
-3-20 segundos: DESENVOLVIMENTO DO CONTEÚDO
-VISUAL: Sequência de cortes extremamente rápidos. Simulações do 3I/ATLAS se aproximando, gráficos simples e dinâmicos de trajetória espacial, cientistas em laboratório (imagens genéricas, rápidas), telescópios apontando para o céu.
-VOZ: (Tom animado, rápido e direto) "Você precisa conhecer o 3I/ATLAS! Esse objeto misterioso está deixando astrônomos de cabelo em pé no mundo todo!"
-TEXTO NA TELA: 🌌 O ENIGMA 3I/ATLAS!
-VOZ: "Não é um cometa comum, nem um asteroide qualquer. Ele veio de MUITO, MUITO LONGE! Tipo... de *fora* do nosso Sistema Solar! Isso mesmo, É INTERESTELAR!"
-TEXTO NA TELA: 🚀 ORIGEM INTERESTELAR!
-VISUAL: Ilustrações rápidas contrastando: um cometa tradicional (com cauda brilhante), um asteroide rochoso, e depois um objeto mais "limpo" ou com formato levemente incomum, com um brilho misterioso.
-VOZ: "A grande questão que todos se perguntam: é um cometa interestelar? Um asteroide super estranho? OU... *será que é algo mais*? Uma nave alienígena?"
-TEXTO NA TELA: COMETA? ASTEROIDE? 🛸 NAVE?
-VISUAL: Gráfico rápido e chamativo mostrando uma linha de trajetória passando *perto* do Sol e depois da órbita da Terra. Datas genéricas como "MÊS X" e "MÊS Y" piscam.
-VOZ: "Ele vai passar relativamente perto do Sol nos próximos meses, e teremos MAIS DADOS CRUCIAIS! Fique atento, as observações podem revelar tudo!"
-TEXTO NA TELA: 🔭 REVELAÇÕES A CAMINHO!
-20-30 segundos: CHAMADA PARA AÇÃO E CONCLUSÃO
-VISUAL: Imagem final do 3I/ATLAS flutuando no espaço profundo, com um grande ponto de interrogação cósmico piscando sobre ele. Música de suspense atinge o pico dramático e termina com um som de "ding" ou "whoosh" final e misterioso.
-VOZ: (Tom intrigante, mais lento e reflexivo) "E aí, qual sua teoria? Cometa exótico? Asteroide perdido? Ou estamos prestes a descobrir algo realmente extraordinário?"
-TEXTO NA TELA: 🤔 QUAL SUA TEORIA?
-VOZ: "Comenta AQUI embaixo o que você acha e me segue pra não perder NENHUMA atualização sobre o 3I/ATLAS! O universo... espera sua resposta!"
-TEXTO NA TELA: 👇 COMENTE! SIGA! 🔔
-[FADE OUT]</t>
+          <t>Pouca gente sabe disso, mas existe um objeto viajando pelo nosso sistema solar que está virando de ponta-cabeça tudo que a ciência pensava saber.
+Ele é o misterioso 3I/ATLAS. Um nome simples para algo que gera debates acalorados entre os maiores especialistas do planeta. Seria apenas um cometa? Um asteroide comum? Ou quem sabe, algo vindo de uma outra galáxia, nunca antes observado com tanta clareza? E a teoria mais audaciosa, que se espalha nos corredores secretos dos observatórios? Que ele não é uma rocha. Mas uma estrutura. Talvez, uma nave. A ideia soa como ficção, mas a ciência não consegue explicar sua assinatura. Sua trajetória é um enigma. Por meses, os olhos do mundo estiveram focados nele. Datas críticas se aproximam, momentos em que a sua passagem, perto do Sol ou até da Terra, pode revelar segredos inimagináveis. O que ele carrega? Estamos realmente sozinhos nesse vasto universo?
+A verdade sobre o 3I/ATLAS pode redefinir nossa existência. Mande esse vídeo para alguém que precisa ver. Agora me diz, você está pronto para o que vamos descobrir?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
         </is>
       </c>
     </row>
@@ -545,12 +533,9 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pouca gente sabe disso, mas o que a NASA encontrou em 2019 pode mudar tudo que sabemos sobre vida no universo.
-Naquele ano, enquanto o mundo seguia a vida normal, nossos telescópios capturaram algo que desafiava a própria ciência. Um objeto vindo de *fora* do nosso sistema solar. Seu nome? 3I/ATLAS.
-À primeira vista, parecia um cometa comum. Mas ele não se comportava como um. Sua trajetória era estranha, seu brilho, ainda mais. Parecia estar acelerando sem motivo aparente, como se algo o impulsionasse, fugindo das leis naturais que conhecemos. Ninguém entendeu o que estava acontecendo.
-E se ele não fosse um cometa? E se fosse, na verdade, tecnologia? O professor Avi Loeb, de Harvard, um dos maiores nomes da astrofísica, não hesitou. Para ele, todas as evidências apontavam para algo *artificial*. Uma sonda. Talvez, uma nave alienígena. Um OVNI interestelar, observando em silêncio.
-Imagine: uma civilização avançada que enviou um mensageiro para o nosso quintal cósmico, enquanto todos dormiam. O que eles queriam? De onde vinham? Será que estamos sozinhos no espaço, ou o universo está apenas esperando o momento certo para se revelar?
-Isso muda tudo, não é? Agora me diz: você acredita que o 3I/ATLAS era apenas um cometa? Ou algo muito maior?</t>
+          <t>Pouca gente sabe disso, mas um objeto vindo de outro sistema estelar já passou perto da Terra… e o que ele nos revelou pode mudar tudo que sabemos sobre a vida lá fora.
+Imagine a cena: de repente, nos confins do nosso sistema solar, surge algo. Não é um cometa comum. Não é um asteroide. Ele se move de uma forma que desafia a gravidade, uma velocidade que assusta. Cientistas o chamaram de algo como "3I/ATLAS" – um nome técnico para um enigma absolutamente alienígena. Por meses, os telescópios do mundo inteiro apontaram para ele, enquanto todos dormiam. E o que viram? Uma silhueta estranha, um comportamento que ninguém conseguia explicar com as leis da física que conhecemos. Seria apenas uma rocha com uma órbita peculiar? Ou… seria algo mais? As teorias se espalharam mais rápido que a luz. Era uma 'nave alienígena' disfarçada? Uma sonda de reconhecimento? Uma tecnologia tão avançada que parecia magia, vinda de muito além? A cada nova foto, a cada novo cálculo, a dúvida só crescia. Porque, no fundo, todos pensavam: e se não estamos sozinhos? E se 'eles' já estão nos visitando, e nós mal percebemos?
+Se algo assim pôde viajar por galáxias e cruzar nosso caminho, o que mais está lá fora? Isso muda tudo, não é? Agora me diz: você acredita que era só uma rocha? Ou essa visita foi uma mensagem? Comente o que você acha e marque alguém que precisa ouvir isso!</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -580,24 +565,55 @@
           <t>média</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Você sabia que em questão de minutos, uma história pode ir de um sussurro na internet para a manchete que milhões de pessoas acreditam ser real? Mesmo que não seja.
-Parecia apenas mais um vídeo aleatório. Alguém filmou luzes estranhas piscando no céu, numa madrugada silenciosa. As imagens eram granuladas, a dúvida era palpável. Mas em poucas horas, já era a "prova" de algo maior. Milhões de visualizações.
-E de repente, outro post. Áudios distorcidos de supostas mensagens vindas do espaço. Ou seriam alertas de algo em nosso próprio planeta? Ninguém sabia ao certo. As luzes e os sons se espalhavam. Todos, curiosos e apreensivos, compartilhavam.
-Em pouco tempo, o mesmo som aparecia em vídeos de outros continentes. Teorias se multiplicavam como rastilho de pólvora. Cometas perigosos, civilizações perdidas, desastres iminentes. A linha entre o fato e a fantasia se desfazia a cada repost, a cada novo comentário, a cada legenda dramática.
-Será que a gente ainda consegue distinguir o que é real do que é apenas... um viral bem feito? A cada segundo, um novo "fato" surge. Ganha vida própria. E milhões de visualizações. Não importa a fonte, importa a história que vende.
-É um jogo de bilhões de dados e cliques. A verdade pode ser a primeira vítima. Então, me diga: você está disposto a acreditar em tudo que viraliza? Ou vai questionar? Compartilhe essa reflexão, antes que a próxima "revelação" chegue na sua tela.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>O Objeto Interstelar 3I/ATLAS e sua Natureza</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>O tema central do texto é o objeto 3I/ATLAS, um cometa antarbintang, o terceiro do tipo detectado. As informações giram em torno de sua descoberta (Julho de 2025), sua rota pelo sistema solar (passagem próxima ao Sol e à Terra em 2025, sem ameaça), sua composição química única (rico em CO2) e sua natureza como um 'visitante' de fora do nosso sistema estelar.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misterio e Especulação Pública sobre 3I/ATLAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uma parte significativa do texto reflete a intensa especulação e curiosidade pública em torno de 3I/ATLAS. Há várias menções e perguntas sobre se é um alien, um OVNI, um evento perigoso ('Ya nos cargo la ching4da'), ou um sinal misterioso. Isso contrasta com as informações científicas, mostrando a tensão entre o conhecimento popular e as explicações astronômicas.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Descoberta Científica e Exploração Astronômica</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>O texto destaca a importância científica de 3I/ATLAS como uma oportunidade única para estudar matéria de outros sistemas estelares. Enfatiza o papel da NASA, do sistema ATLAS (Asteroid Terrestrial-impact Last Alert System) na sua detecção e do Telescópio Espacial James Webb em sua análise. Detalhes sobre sua órbita hiperbólica e composição oferecem insights valiosos para a astrofísica.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>alta</t>
         </is>
       </c>
     </row>

--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -430,13 +430,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="50" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="6"/>
@@ -565,33 +565,70 @@
           <t>média</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>O que eu vou te contar agora parece cena de filme, mas está acontecendo... bem na sua tela. Você sabia que, enquanto assistimos, histórias inacreditáveis se espalham mais rápido que a velocidade da luz, tudo isso em feeds infinitos?
+Imagine: uma luz estranha no céu que ninguém consegue explicar, um sussurro sobre um alinhamento planetário raro, ou um alerta sobre algo oculto nas profundezas da Terra. Começa com um único vídeo, um post solitário. Poucas horas depois, essa história já tem milhões de visualizações. Você vê cientistas explicando dados complexos, influenciadores rindo com memes virais, e pessoas comuns jurando ter a verdade absoluta. De repente, a rede está saturada. É a mesma história, mas contada de mil formas diferentes: como um fato científico, piada, ou um presságio apocalíptico. Quem consegue diferenciar? Em meros minutos, o que era pura especulação se transforma em "notícia urgente" para milhões de pessoas. A linha entre o que é real e o que é pura ficção para conseguir um clique simplesmente desaparece na nossa frente.
+E a pergunta que fica é: o que você está consumindo? Você realmente sabe a verdade por trás do que te prende e te viraliza?
+Pense nisso. Da próxima vez que um vídeo te prender na sua tela, você vai pesquisar... ou apenas acreditar? Comente aqui: qual a história mais bizarra que você já viu viralizar no seu feed?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>O Objeto Interstelar 3I/ATLAS e sua Natureza</t>
+          <t>O Mistério do 3I ATLAS e Teorias Alienígenas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O tema central do texto é o objeto 3I/ATLAS, um cometa antarbintang, o terceiro do tipo detectado. As informações giram em torno de sua descoberta (Julho de 2025), sua rota pelo sistema solar (passagem próxima ao Sol e à Terra em 2025, sem ameaça), sua composição química única (rico em CO2) e sua natureza como um 'visitante' de fora do nosso sistema estelar.</t>
+          <t>Um objeto interestelar misterioso, o 3I/ATLAS, gerou pânico e especulação global ao se aproximar do Sol em 29 de outubro. A NASA, que chegou a suspender atualizações, monitorava o periélio deste cometa anômalo como um possível 'evento histórico'. Teorias do Dr. Avi Loeb, de Harvard, sugerem que suas características (trajetória perfeita, jato em direção ao Sol, níquel atômico anômalo) indicam ser uma 'nave nodriza' ou tecnologia extraterrestre, e alguns preveem até um 'apagão'. Este caso desperta medo do desconhecido, curiosidade científica e a tensão de uma possível revelação alienígena, alimentando teorias conspiratórias perfeitas para um vídeo viral.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>alta</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pouca gente sabe disso, mas em 29 de outubro, o mundo pode ter estado à beira de uma revelação que mudaria tudo.
+Enquanto a maioria seguia sua vida, um objeto interestelar misterioso, o 3I/ATLAS, se aproximava do Sol. Silenciosamente. A NASA, com um comportamento incomum, chegou a suspender atualizações. Eles monitoravam este cometa anômalo como um possível 'evento histórico'. Por que tanto sigilo? Por que tanto medo?
+Foi aí que Dr. Avi Loeb, de Harvard, insistiu: suas características eram estranhas demais para serem naturais. Uma trajetória perfeita, um jato de gás direcionado ao Sol, níquel atômico anômalo. Para ele, tudo apontava para uma única e assustadora conclusão: uma 'nave nodriza', tecnologia extraterrestre avançada.
+Pânico global silencioso. Alguns até previam um "apagão" inexplicável. Seria só um cometa? Ou o início de algo muito maior, algo que a ciência ainda nem ousa pronunciar?
+Esse mistério desperta medo, curiosidade e a tensão de uma possível revelação. Agora me diz: você acredita que estamos sozinhos neste universo? Comente o que você faria se a verdade fosse desvendada. Isso muda tudo, não é?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Misterio e Especulação Pública sobre 3I/ATLAS</t>
+          <t>Profecias Chocantes e a Crise no Rio de Janeiro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Uma parte significativa do texto reflete a intensa especulação e curiosidade pública em torno de 3I/ATLAS. Há várias menções e perguntas sobre se é um alien, um OVNI, um evento perigoso ('Ya nos cargo la ching4da'), ou um sinal misterioso. Isso contrasta com as informações científicas, mostrando a tensão entre o conhecimento popular e as explicações astronômicas.</t>
+          <t>Uma profecia assustadora sobre o Rio de Janeiro está se cumprindo diante dos olhos do Brasil, com eventos recentes gerando pânico e tristeza na cidade. Vídeos antigos de lives no YouTube ressurgiram, mostrando a predição de um profeta sobre os eventos atuais, como a 'megaoperação' e o 'clima de guerra' na capital fluminense. A cidade vive um caos declarado, com combates e desabafos de figuras públicas questionando a abordagem ao crime organizado. Esta temática explora a tensão, o medo e a perplexidade ao ver o sobrenatural se conectar com a realidade social, garantindo alto engajamento emocional.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,12 +640,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Descoberta Científica e Exploração Astronômica</t>
+          <t>A Descoberta Impactante do Lince-Ibérico Branco</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O texto destaca a importância científica de 3I/ATLAS como uma oportunidade única para estudar matéria de outros sistemas estelares. Enfatiza o papel da NASA, do sistema ATLAS (Asteroid Terrestrial-impact Last Alert System) na sua detecção e do Telescópio Espacial James Webb em sua análise. Detalhes sobre sua órbita hiperbólica e composição oferecem insights valiosos para a astrofísica.</t>
+          <t>Um 'gato fantasma' lendário foi capturado em imagem pela primeira vez na Espanha, revelando um lince-ibérico branco que está surpreendendo o mundo! Em Jaén, um fotógrafo registrou o que se acredita ser o primeiro lince-ibérico leucístico documentado na história, uma condição genética rara que confere pelos brancos mantendo a cor dos olhos. Este felino raro, uma espécie outrora à beira da extinção, agora enfrenta o risco de sua camuflagem natural ser comprometida por sua pelagem única. A beleza e raridade do animal, a emoção da descoberta e a preocupação com a conservação tornam este um tema visualmente cativante e de grande apelo emocional para viralizar.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -427,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -636,6 +636,25 @@
           <t>alta</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>E se eu te dissesse que o caos no Rio de Janeiro já foi previsto, em detalhes, anos atrás? Preste atenção.
+Hoje, a cidade maravilhosa vive um pesadelo. Um clima de guerra. Megaoperações policiais se tornaram rotina, e a tensão nas ruas é quase palpável. Mas o que pouca gente sabe, é que esse cenário apocalíptico foi alertado. E não por qualquer um.
+Vídeos antigos, de lives no YouTube, ressurgiram, mostrando um profeta descrevendo exatamente o que vemos agora. Ele falava de uma 'megaoperação' que pararia o Rio, de um 'clima de guerra' que se instalaria na capital fluminense. De uma cidade em 'caos declarado'. Pense nos combates diários, nos desabafos desesperados de figuras públicas. Nas famílias vivendo sob fogo cruzado. Não é assustador como tudo se encaixa?
+Seria mera coincidência? Ou estamos testemunhando algo que transcende nossa compreensão, onde o sobrenatural se choca com a dura realidade social? Essa conexão é inegável, e aterrorizante.
+Agora me diz, você acredita nessa profecia? Deixe sua opinião e compartilhe esse vídeo. O mundo precisa saber disso.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -649,6 +668,163 @@
         </is>
       </c>
       <c r="C7" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O lendário 'gato fantasma' da Espanha? Ele é real e foi fotografado!
+Por séculos, histórias sussurravam sobre um felino espectral, uma sombra branca que vagava pelas montanhas da Península Ibérica. Ninguém nunca teve certeza… até agora. Em Jaén, na Espanha, um fotógrafo, numa noite que parecia como qualquer outra, registrou o impensável. Uma visão que parou o tempo e fez o mundo prender a respiração.
+Diante da câmera, ali estava ele: um lince-ibérico branco. Não albino, mas leucístico. Seus olhos, vibrantes e selvagens, contrastavam com a pelagem pura como a neve. Um lince! Uma espécie que mal sobreviveu ao fio da navalha da extinção, agora revela um exemplar tão único que reescreve a própria história. Você consegue imaginar a emoção desse momento? A beleza é chocante. Mas com essa raridade vem uma preocupação: essa pelagem, embora deslumbrante, compromete sua camuflagem natural. Um fantasma que, paradoxalmente, se tornou mais visível.
+Esse felino fantasma agora é real. E sua existência levanta uma pergunta assustadora: sua beleza será sua salvação ou sua perdição? Comente o que você pensa e compartilhe essa história inacreditável.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mistérios Cósmicos e Conspirações Alienígenas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>O que a NASA realmente esconde sobre o Cometa 3I/ATLAS? Com mais de 200 milhões de visualizações em diversos vídeos, este 'cometa' é teorizado como uma nave alienígena por anomalias em sua trajetória, composição e comportamento ao se aproximar do Sol. A especulação sobre 'imagens secretas' do Telescópio James Webb e a insistência de cientistas renomados como Avi Loeb em sua natureza extraterrestre criam um suspense fascinante. Este tema alimenta a curiosidade, o medo do desconhecido e a busca por respostas sobre vida inteligente no universo, garantindo engajamento viral.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Você sabia que o cometa mais misterioso da história pode não ser um cometa, mas sim… uma nave alienígena?
+Pouca gente sabe disso, mas o que vou te contar sobre o Cometa 3I/ATLAS é real... e pode mudar sua visão do universo. O ATLAS, com mais de 200 milhões de visualizações em vídeos, virou um enigma cósmico que a NASA insiste em chamar de rocha. Mas a verdade é que sua trajetória era estranha. Sua composição, mais ainda. Ao se aproximar do Sol, ele não se comportava como um cometa normal. Era como se estivesse... manobrando.
+Cientistas renomados, como Avi Loeb de Harvard, começaram a levantar a hipótese mais ousada: o ATLAS seria tecnologia extraterrestre. Uma nave disfarçada, observando a Terra. E o que a NASA realmente esconde? Há rumores insistentes de imagens secretas do Telescópio James Webb, que mostram algo além da nossa compreensão. Algo que foi rapidamente classificado, mas que levanta a pergunta: o que eles não querem que a gente veja?
+Enquanto o mundo dormia, os dados chegavam. As anomalias se acumulavam. Ninguém entendeu de fato o que estava acontecendo nos bastidores. Será que não estamos sozinhos? E se essa for a prova que sempre procuramos, escondida à vista de todos, por medo do que a revelação causaria?
+Isso muda tudo, não é? Agora me diz: você acredita que o Cometa ATLAS é uma nave alienígena? Comente sua teoria e mande esse vídeo pra quem precisa saber disso.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Heidi Klum e a Reinvenção do Halloween</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ninguém domina o Halloween como Heidi Klum, cujos disfarces anuais são um fenômeno global que paralisam a internet. Cada ano, como em 2025 com sua Medusa hiper-realista e seu marido Tom Kaulitz transformado em pedra, seus trajes e a festa 'Heidiween' em Nova Iorque levam meses de planejamento e geram um misto de fascínio, choque e antecipação. A viralidade vem da transformação extrema, dos detalhes chocantes e da curiosidade em ver o que a 'rainha do Halloween' fará a seguir, provando que criatividade e espetáculo são receita para o sucesso.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pouca gente entende a obsessão de Heidi Klum pelo Halloween. Mas o que eu vou te contar agora, vai mudar sua visão sobre a rainha do terror.
+Enquanto o mundo se prepara para uma noite de sustos e doces, Heidi já planeja há meses. A verdade é que ninguém, absolutamente NINGUÉM, domina o Halloween como ela. É um fenômeno global que paralisa a internet a cada ano, transformando Nova Iorque em seu palco sombrio.
+Você sabia que para 2025, os sussurros já apontam para uma Medusa hiper-realista, com escamas cintilantes e cobras que parecem rastejar? E seu marido, Tom Kaulitz, transformado em pedra, ao seu lado. É mais que uma fantasia; é uma obra de arte viva, uma cena de horror que ganha vida.
+Meses de trabalho, equipes de especialistas, detalhes tão chocantes que geram fascínio e repulsa. A 'Heidiween' não é só uma festa; é um ritual, uma antecipação do que a mente de Heidi Klum pode criar para nos chocar, nos intrigar. Você consegue imaginar o que é preciso para alcançar esse nível de transformação extrema?
+É essa mistura de criatividade insana e espetáculo puro que a torna a verdadeira rainha do Halloween. E cada ano, a pergunta ecoa: o que vem depois?
+Agora me diz... você teria coragem de encarar uma Medusa assim de perto? Manda esse vídeo pra quem precisa entender o verdadeiro poder de Heidi Klum.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Confrontos e Rivalidades de Personalidades</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>O Brasil parou para assistir a uma rivalidade explosiva que transcendeu as batalhas de rima e foi parar no ringue! A luta entre os MCs Xamuel e Jhony MC no Fight Music Show 7, que aconteceu em 01/11, gerou uma comoção nacional com milhões de visualizações em vídeos de prévias, encaradas tensas e reações pós-luta. A rivalidade acirrada, as provocações e a expectativa do confronto físico criaram um drama intenso e uma curiosidade imensa, alimentando debates sobre quem venceria e gerando conteúdos de reação em massa. Vídeos mostrando a encarada, falas polêmicas dos MCs e análises dos resultados são perfeitos para engajar a audiência com a tensão da disputa.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pouca gente sabe disso, mas uma rivalidade explosiva que parecia ficção parou o Brasil no dia 01 de novembro. O que começou em batalhas de rima, onde as palavras eram as armas, escalou para um nível que ninguém imaginava. Estamos falando de Xamuel e Jhony MC. Dois nomes que, por meses, trocaram farpas e promessas, alimentando uma tensão que era quase palpável nas redes sociais. Cada provocação, cada encarada tensa antes da luta... parecia um capítulo de um suspense. E então, no Fight Music Show 7, a contagem regressiva para o confronto físico chegou ao fim. As luzes do ringue focavam neles, enquanto milhões de olhos grudados nas telas esperavam o desfecho. O ar estava pesado, a expectativa era imensa. Quem venceria? Essa era a pergunta que ecoava em cada casa, em cada comentário. E o que aconteceu lá dentro do ringue? Bom, o resultado não só definiu um vencedor, mas reacendeu toda a chama dessa rivalidade, gerando uma onda de reações e análises que inundou a internet. Essa tensão parou um país inteiro. Mas e você, o que pensa sobre o papel da rivalidade nesses palcos? Será que é só espetáculo ou existe algo mais? Comente sua opinião e compartilhe essa história com seus amigos!</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Crises Urbanas e Segurança Pública</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Uma onda de medo e caos tomou conta do Rio de Janeiro, com operações policiais intensas que deixaram a população em alerta máximo! A recente megaoperação policial na cidade resultou em confrontos e gerou milhões de visualizações em vídeos de notícias, depoimentos de moradores e reações de personalidades como o ator André D'Lucca. A tensão das ruas, os relatos emocionantes de quem vive a realidade local, a presença policial e as discussões sobre violência e segurança pública criam um forte apelo emocional e um senso de urgência. Conteúdos que mostram a realidade da cidade, análises do impacto social e mensagens de solidariedade podem gerar grande engajamento e debate.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Transformações Impactantes de Celebridades</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chocante! Heidi Klum, a rainha do Halloween, superou todas as expectativas com sua fantasia de Medusa, conquistando o título de melhor do mundo mais uma vez! Sua transformação inacreditável em Medusa para a tradicional festa 'Heidiween' em Nova York gerou mais de 558 milhões de visualizações, com detalhes impressionantes da maquiagem e do figurino. A curiosidade em torno da revelação, o impacto visual da criatividade e o suspense da transformação cativam o público, que busca ver o 'antes e depois' e os bastidores da criação. Vídeos que exploram o processo de elaboração da fantasia, a reação das pessoas e comparativos com anos anteriores geram fascínio e são altamente compartilháveis.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>alta</t>
         </is>

--- a/planilha_temas.xlsx
+++ b/planilha_temas.xlsx
@@ -427,16 +427,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="6"/>
@@ -812,16 +812,35 @@
           <t>alta</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Pouca gente sabe disso, mas o que está acontecendo no Rio de Janeiro é mais grave do que parece.
+Uma onda de medo invisível tomou conta da Cidade Maravilhosa. Não é ficção, é a realidade crua. Operações policiais intensas transformaram bairros inteiros em campos de batalha. A cada sirene, a cada estampido, o ar pesa.
+Milhões de pessoas assistiram, em choque, aos vídeos que inundaram a internet: depoimentos de moradores com a voz embargada, a tensão nos olhos. Até o ator André D'Lucca se pronunciou, ecoando a angústia de uma cidade em alerta máximo.
+As ruas, antes vibrantes, agora sussurram histórias de confrontos, de uma presença policial ostensiva que muda a rotina de milhares. É uma teia complexa de violência e segurança pública. Qual o custo humano dessa tensão?
+Essa é a realidade. Uma cidade que teima em ser maravilhosa, mas que implora por paz. Depois de tudo isso, me diz: o que você realmente sente sobre o Rio? Compartilhe essa reflexão. O debate é urgente.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Transformações Impactantes de Celebridades</t>
+          <t>Encontros com Animais Gigantes e Perigosos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chocante! Heidi Klum, a rainha do Halloween, superou todas as expectativas com sua fantasia de Medusa, conquistando o título de melhor do mundo mais uma vez! Sua transformação inacreditável em Medusa para a tradicional festa 'Heidiween' em Nova York gerou mais de 558 milhões de visualizações, com detalhes impressionantes da maquiagem e do figurino. A curiosidade em torno da revelação, o impacto visual da criatividade e o suspense da transformação cativam o público, que busca ver o 'antes e depois' e os bastidores da criação. Vídeos que exploram o processo de elaboração da fantasia, a reação das pessoas e comparativos com anos anteriores geram fascínio e são altamente compartilháveis.</t>
+          <t>Imagine um crocodilo de 7 metros e 1 tonelada emergindo perto da sua casa, como em Sungai Undan, Indragiri Hilir! Moradores de uma vila na Indonésia capturaram este animal colossal, estimado em mais de 50 anos de idade, após ele aterrorizar a comunidade. A tensão da caçada, a bravura dos locais e o perigo iminente transformam esta história de 'buaya raksasa' em um drama real que captura a atenção e o medo coletivo. Esta combinação de medo primal e heroísmo humano é perfeita para viralizar.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -829,6 +848,223 @@
           <t>alta</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>O que eu vou te contar agora é real... e vai te deixar arrepiado. Você consegue imaginar um crocodilo de SETE metros emergindo perto da sua casa?
+Em Sungai Undan, Indragiri Hilir, Indonésia, as noites deixaram de ser tranquilas. Não era um conto de fadas, mas um pesadelo real: um predador ancestral, um crocodilo com mais de 50 anos de idade, e uma tonelada de puro músculo e escamas. Sete metros de puro terror que emergiam das águas, assombrando a comunidade, ameaçando vidas.
+Ninguém estava seguro. A cada mergulho, a cada barulho na noite, o pavor do "buaya raksasa" – o crocodilo gigante – se espalhava.
+Mas a coragem venceu o medo. Os moradores, exaustos de viverem sob essa sombra, uniram forças para uma caçada épica. Horas de tensão, armadilhas improvisadas, a adrenalina correndo. Você consegue sentir a espera? O ar pesado?
+E então, ele foi capturado. Uma criatura colossal, um monstro pré-histórico que desafiou a compreensão de todos. Pense nisso: um gigante de 7 metros, o dobro do tamanho de um carro, vivendo à espreita, como um guardião sombrio de um passado distante.
+Essa história real prova que, em alguns lugares, a natureza ainda guarda segredos aterrorizantes. Você teria coragem de viver em Sungai Undan? Comente o que você faria se o "buaya raksasa" aparecesse na sua casa. E mande esse vídeo pra quem precisa ver isso!</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Desastres Naturais e Clima Extremo em Tempo Real</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chuvas de granizo gigantes, ventos de quase 100 km/h e inundações devastadoras transformaram cidades do Paraná em cenários de desastre em questão de horas, com vídeos que somam mais de 30 milhões de visualizações. Registros impressionantes mostram granizo pesando mais de 100 gramas em Jandaia do Sul, supermercados inundados e estruturas retorcidas em Campo Mourão e Santa Fé. Essas imagens chocantes de destruição, a urgência dos alertas climáticos e a empatia pelas comunidades afetadas geram uma conexão profunda e imediata, perfeita para vídeos de notícias rápidas e relatos impactantes sobre o poder da natureza.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Essa história parece ficção, mas aconteceu de verdade, e é assustador. Em questão de horas, cidades inteiras no Paraná se transformaram num cenário de apocalipse. Enquanto muitos dormiam, o céu desabou de uma forma que ninguém imaginava. Em Jandaia do Sul, pedras de granizo do tamanho de bolas de golfe, algumas pesando mais de 100 gramas, despencaram do céu como projéteis. Você consegue imaginar o barulho? O vento, com quase 100 quilômetros por hora, rasgava telhados e retorcia estruturas em Campo Mourão e Santa Fé, deixando um rastro de destruição inacreditável. Supermercados foram engolidos por inundações devastadoras, e a água levava tudo. As imagens, que já somam mais de 30 milhões de visualizações, mostram uma realidade brutal e te fazem pensar: como algo assim pode acontecer tão rápido? O poder da natureza é inquestionável. Depois de ver isso, a única pergunta que fica é: estamos realmente preparados para o que vem por aí? Mande este vídeo para alguém que precisa ver a força do clima e comente: o que você faria se estivesse lá?</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fenômenos Inexplicáveis e Mistérios Urbanos</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Moradores de Santos estão perdendo o sono com um barulho assustador e inexplicável vindo das profundezas do mar, um mistério que já acumula quase 6 milhões de visualizações. A repetição desse fenômeno intrigante, onde um som profundo emerge da costa, alimenta teorias de portais submarinos, criaturas marinhas desconhecidas ou até mesmo eventos sobrenaturais. A tensão do desconhecido, o medo do que pode estar escondido nas profundezas e a curiosidade sobre o inexplicável criam um engajamento viral irresistível, um prato cheio para investigar lendas urbanas e fenômenos paranormais.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Essa história parece ficção, mas em Santos, o fundo do mar guarda um mistério que está tirando o sono de milhares. Pouca gente sabe disso, mas há meses, um som assustador e inexplicável emerge das profundezas da costa paulista. Não é o barulho das ondas, nem de embarcações. É um ruído grave, contínuo, quase metálico, que ressoa pela madrugada e aterroriza quem vive perto do oceano.
+Vídeos registrando esse fenômeno já acumulam quase seis milhões de visualizações, e a cada nova aparição, a tensão aumenta. Imagine a cena: a noite cai, um silêncio pesado preenche o ar, e então, ele volta. Um eco profundo que parece rasgar a barreira entre o nosso mundo e um abismo desconhecido.
+Cientistas e especialistas estão intrigados, mas nenhuma explicação oficial consegue acalmar os corações. Seria um portal submarino se abrindo? Uma criatura colossal, adormecida há séculos, despertando em nosso litoral? Ou talvez, algo sobrenatural, uma lenda urbana ganhando vida nas profundezas do Atlântico?
+O medo do desconhecido se mistura à curiosidade, criando um suspense que prende a alma. O que quer que esteja causando esse som, sua origem permanece um enigma assustador.
+Agora me diz: qual a sua teoria sobre o barulho misterioso de Santos? Comente e mande esse vídeo pra quem precisa conhecer esse fenômeno arrepiante!</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mistério Cósmico e Conspirações</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vazou! Imagens secretas do Telescópio Espacial James Webb mostram o 3I/ATLAS, uma estrutura colossal brilhando em padrões que nenhum cientista consegue explicar, movendo-se em direção à Terra. Autoridades permanecem em silêncio, e vídeos com essa informação foram removidos de várias plataformas em minutos, alimentando a teoria de uma conspiração governamental. A descoberta de um fragmento metálico queimado, gravado com símbolos alienígenas, intensifica o mistério sobre o que realmente mudou de curso no espaço e o que os governos estão escondendo. Esse caso desperta medo, curiosidade e o desejo de desvendar a verdade por trás do que 'não deveria existir', elementos perfeitos para um viral.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pouca gente sabe disso, mas o que eu vou te contar agora é real… e assustador. Imagens secretas do Telescópio Espacial James Webb vazaram e o que elas mostram desafia tudo que conhecemos.
+Estamos falando do 3I/ATLAS, uma estrutura simplesmente colossal, brilhando em padrões que NENHUM cientista consegue explicar. E o pior? Ela está se movendo em direção à Terra. As autoridades? Silêncio total. Mas o silêncio é a prova, não é? Vídeos com essa informação crucial foram removidos de várias plataformas em questão de minutos. Removidos. Isso não te faz pensar em conspiração?
+E pra complicar, um fragmento metálico queimado, com símbolos alienígenas, foi encontrado. Esse fragmento, ele intensifica o mistério sobre o que REALMENTE mudou de curso no espaço. O que eles estão escondendo de nós? O que "não deveria existir" está vindo?
+O medo é real, a curiosidade é imensa. Isso muda tudo, não é? Agora me diz, você acredita em silêncio ou que existe algo muito maior lá fora? Comente o que você faria e mande esse vídeo pra quem precisa saber da verdade antes que seja tarde demais.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Desastres Naturais e Alertas Climáticos</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>O Brasil está em alerta! Cidades no Paraná e Rio Grande do Sul foram castigadas por tempestades de granizo e vendavais com rajadas de até 95 km/h, onde pedras de gelo do tamanho de ovos causaram destruição massiva em casas, plantações e veículos. A iminência de ciclones extratropicais com volumes de chuva de 100mm gera pânico e mobiliza a Defesa Civil para auxiliar milhares de pessoas desalojadas ou desabrigadas em locais como Jandaia do Sul e Sarandi. A força avassaladora da natureza, a urgência dos alertas e as imagens chocantes de destruição criam um impacto visual e emocional que captura a atenção e provoca debate. Este tema explora o medo do desconhecido e a resiliência humana diante de catástrofes.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>O que eu vou te contar agora é real… e assustador. Enquanto muitos dormiam, o Brasil entrou em alerta máximo, mas poucos entenderam o que realmente aconteceu.
+Pedras de gelo do tamanho de ovos. Rajadas de vendaval que quase atingiram 95 km/h. Essa não é a cena de um filme de catástrofe, é a realidade brutal que varreu cidades no Paraná e Rio Grande do Sul. Em Jandaia do Sul, em Sarandi, casas foram demolidas, plantações inteiras dizimadas, veículos viraram sucata. Uma destruição massiva, que deixou milhares de famílias sem nada, desalojadas ou desabrigadas.
+Mas a calma não veio. Pelo contrário. A Defesa Civil agora corre contra o tempo, em pânico, com alertas iminentes: ciclones extratropicais se aproximam, prometendo volumes de chuva que podem ultrapassar os 100 milímetros. O que parecia um desastre isolado, agora ganha contornos de um cenário ainda mais aterrorizante. O que a gente faz quando o próprio céu vira uma ameaça constante? Será que estamos preparados para enfrentar algo assim?
+Essa força avassaladora da natureza, a urgência desses alertas, o medo do desconhecido… nos lembra da nossa fragilidade. Isso te faz pensar, não faz?
+A natureza está falando. Você está ouvindo? Comente aqui embaixo: qual a sua maior preocupação com esses eventos? Isso muda tudo, não é?</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mistérios Inexplicáveis Locais/Urbanos</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Moradores de Santos estão perdendo o sono com um barulho inexplicável vindo das profundezas do mar, descrito como um 'ronco profundo' ou 'rangido metálico' de algo gigantesco. Este fenômeno misterioso, que se manifesta na madrugada, já intrigou cientistas e alimentou diversas teorias, desde submarinos secretos até criaturas marinhas desconhecidas ou mesmo eventos sobrenaturais. A ausência de explicações oficiais e o impacto direto na vida dos moradores criam um cenário de medo e curiosidade intensa, perfeito para vídeos que exploram o desconhecido e o 'sobrenatural'. Este mistério local, com sua aura de lenda urbana, gera um debate fervoroso e convida à especulação.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>O que eu vou te contar agora é real… e assustador. Enquanto muitos dormiam, o Brasil entrou em alerta máximo, mas poucos entenderam o que realmente aconteceu.
+Pedras de gelo do tamanho de ovos. Rajadas de vendaval que quase atingiram 95 km/h. Essa não é a cena de um filme de catástrofe, é a realidade brutal que varreu cidades no Paraná e Rio Grande do Sul. Em Jandaia do Sul, em Sarandi, casas foram demolidas, plantações inteiras dizimadas, veículos viraram sucata. Uma destruição massiva, que deixou milhares de famílias sem nada, desalojadas ou desabrigadas.
+Mas a calma não veio. Pelo contrário. A Defesa Civil agora corre contra o tempo, em pânico, com alertas iminentes: ciclones extratropicais se aproximam, prometendo volumes de chuva que podem ultrapassar os 100 milímetros. O que parecia um desastre isolado, agora ganha contornos de um cenário ainda mais aterrorizante. O que a gente faz quando o próprio céu vira uma ameaça constante? Será que estamos preparados para enfrentar algo assim?
+Essa força avassaladora da natureza, a urgência desses alertas, o medo do desconhecido… nos lembra da nossa fragilidade. Isso te faz pensar, não faz?
+A natureza está falando. Você está ouvindo? Comente aqui embaixo: qual a sua maior preocupação com esses eventos? Isso muda tudo, não é?</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Barulho No Mar De Santos Intriga Moradores</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Moradores de Santos estão perdendo o sono com um fenômeno inexplicável: um barulho profundo, quase um ronco ou rangido metálico, emanando do mar. Este som misterioso, descrito como se algo gigantesco se movesse sob as águas, tem despertado grande curiosidade e teorias sobre o que poderia estar escondido nas profundezas. A natureza do som evoca um forte senso de mistério e fascínio, gerando discussões sobre o sobrenatural ou fenômenos naturais desconhecidos que mobilizam a cidade.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Atualização Do 3i Atlas</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>O objeto interestelar 3I/ATLAS, descoberto em 2025, é mais antigo que a Terra e segue em direção a Júpiter após sua passagem mais próxima do Sol. Apesar de teorias o associarem a uma nave alienígena, cientistas o identificam como um cometa de composição química incomum. Este corpo celeste intrigante, que viajou por milhões de anos no espaço interestelar, instiga a curiosidade sobre o universo e a possibilidade de vida extraterrestre, prometendo mais descobertas sobre nossa galáxia.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>alta</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
